--- a/Import Integration/ImportIntegration/bin/Debug/Vehicle Receiving.xlsx
+++ b/Import Integration/ImportIntegration/bin/Debug/Vehicle Receiving.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i-jcadiao\Desktop\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P.B Laza\Desktop\FILE TRANSFER\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="1170" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle Receiving" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicle Receiving'!$A$1:$O$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicle Receiving'!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>VPO Number</t>
   </si>
@@ -442,114 +442,12 @@
   </si>
   <si>
     <t>In-Transit Receipt Date</t>
-  </si>
-  <si>
-    <t>Invoice Not Pulled-Out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VDX       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VDC-TAN   </t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>KR1MJH</t>
-  </si>
-  <si>
-    <t>W54</t>
-  </si>
-  <si>
-    <t>P19</t>
-  </si>
-  <si>
-    <t>X08</t>
-  </si>
-  <si>
-    <t>VB5NHH</t>
-  </si>
-  <si>
-    <t>K77</t>
-  </si>
-  <si>
-    <t>4D56AAR9291</t>
-  </si>
-  <si>
-    <t>B1-B371</t>
-  </si>
-  <si>
-    <t>PAEVB5NHHHB019611</t>
-  </si>
-  <si>
-    <t>P57</t>
-  </si>
-  <si>
-    <t>4D56AAS2318</t>
-  </si>
-  <si>
-    <t>B1-C017</t>
-  </si>
-  <si>
-    <t>PAEVB5NHHHB020267</t>
-  </si>
-  <si>
-    <t>4N15UBL3702</t>
-  </si>
-  <si>
-    <t>NT-2486</t>
-  </si>
-  <si>
-    <t>MMBGJKR10HH013365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VDC       </t>
-  </si>
-  <si>
-    <t>W5F</t>
-  </si>
-  <si>
-    <t>4D56AAR9978</t>
-  </si>
-  <si>
-    <t>B1-N008</t>
-  </si>
-  <si>
-    <t>PAEVB5NHHHB019668</t>
-  </si>
-  <si>
-    <t>KS1ASH</t>
-  </si>
-  <si>
-    <t>4N15UBT7548</t>
-  </si>
-  <si>
-    <t>B0-Q904</t>
-  </si>
-  <si>
-    <t>MMBGUKS10HH026693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSFM-10181         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSFM-10180         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSFM-10179         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSFM-10203         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSFM-10186         </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,13 +509,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,524 +793,389 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="15" style="3" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row spans="1:15" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="4">
-        <v>42948</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>2429476</v>
-      </c>
-      <c r="E2" s="4">
-        <v>42948</v>
-      </c>
-      <c r="F2" s="4">
-        <v>42948</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2">
-        <v>2017</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2">
-        <v>638414</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>VSFM-010208</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>2017-08-03</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Invoice Not Pulled-Out</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>2429516</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>2017-08-03</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>2017-08-03</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>VDX</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>L65MYH</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>P13</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>W50</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>4D56AAP5744</t>
+        </is>
+      </c>
+      <c r="M2" s="0" t="inlineStr">
+        <is>
+          <t>NR-6968</t>
+        </is>
+      </c>
+      <c r="N2" s="0" t="inlineStr">
+        <is>
+          <t>618386</t>
+        </is>
+      </c>
+      <c r="O2" s="0" t="inlineStr">
+        <is>
+          <t>PAEL65MYHGB025398</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="4">
-        <v>42948</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>2429477</v>
-      </c>
-      <c r="E3" s="4">
-        <v>42948</v>
-      </c>
-      <c r="F3" s="4">
-        <v>42948</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3">
-        <v>2017</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3">
-        <v>642025</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>VSFM-010207</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>2017-08-03</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Invoice Not Pulled-Out</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>2429517</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>2017-08-03</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>2017-08-03</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>VDC-TAN</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>L35NYH</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>P13</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="K3" s="0" t="inlineStr">
+        <is>
+          <t>W50</t>
+        </is>
+      </c>
+      <c r="L3" s="0" t="inlineStr">
+        <is>
+          <t>4D56AAS2492</t>
+        </is>
+      </c>
+      <c r="M3" s="0" t="inlineStr">
+        <is>
+          <t>B1-R861</t>
+        </is>
+      </c>
+      <c r="N3" s="0" t="inlineStr">
+        <is>
+          <t>642335</t>
+        </is>
+      </c>
+      <c r="O3" s="0" t="inlineStr">
+        <is>
+          <t>PAEL35NYHHB008471</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="4">
-        <v>42948</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>2429478</v>
-      </c>
-      <c r="E4" s="4">
-        <v>42948</v>
-      </c>
-      <c r="F4" s="4">
-        <v>42948</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4">
-        <v>2017</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4">
-        <v>256971</v>
-      </c>
-      <c r="O4" t="s">
-        <v>34</v>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>VSFM-010209</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>2017-08-03</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Invoice Not Pulled-Out</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>2429518</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>2017-08-03</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>2017-08-03</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>VDC-TAN</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>A13NXH</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t>M08</t>
+        </is>
+      </c>
+      <c r="L4" s="0" t="inlineStr">
+        <is>
+          <t>3A92UGB0806</t>
+        </is>
+      </c>
+      <c r="M4" s="0" t="inlineStr">
+        <is>
+          <t>B0-V824</t>
+        </is>
+      </c>
+      <c r="N4" s="0" t="inlineStr">
+        <is>
+          <t>636427</t>
+        </is>
+      </c>
+      <c r="O4" s="0" t="inlineStr">
+        <is>
+          <t>PAEA13NXHHA000534</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="4">
-        <v>42948</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>2429471</v>
-      </c>
-      <c r="E5" s="4">
-        <v>42948</v>
-      </c>
-      <c r="F5" s="4">
-        <v>42948</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5">
-        <v>2017</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5">
-        <v>638595</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="4">
-        <v>42948</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>2429496</v>
-      </c>
-      <c r="E6" s="4">
-        <v>42948</v>
-      </c>
-      <c r="F6" s="4">
-        <v>42948</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6">
-        <v>2017</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6">
-        <v>269409</v>
-      </c>
-      <c r="O6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>VSFM-009354</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>2017-08-03</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>Invoice Not Pulled-Out</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>2429529</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>2017-08-03</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>2017-08-03</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>VDC-TAN</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>CY1MHG</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>XA1</t>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>4A92CJ6175</t>
+        </is>
+      </c>
+      <c r="M5" s="0" t="inlineStr">
+        <is>
+          <t>NO-3132</t>
+        </is>
+      </c>
+      <c r="N5" s="0" t="inlineStr">
+        <is>
+          <t>227943</t>
+        </is>
+      </c>
+      <c r="O5" s="0" t="inlineStr">
+        <is>
+          <t>JMYSNCY1AGU001090</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O47"/>
+  <autoFilter ref="A1:O1"/>
   <dataValidations count="14">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Header Row" error="The header row should not be changed." sqref="G1">
       <formula1>"In-Transit Site"</formula1>
